--- a/data/trans_dic/P4_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P4_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que reside en vivienda cuya superficie es menor o igual que 75m2</t>
+          <t>Población que reside en vivienda cuya superficie es menor o igual que 75m2 (tasa de respuesta: 93,2%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,77 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>24,68%</t>
+          <t>27,19%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>26,94%</t>
+          <t>28,85%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>24,51%</t>
+          <t>25,14%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>26,53%</t>
+          <t>26,88%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>46,92%</t>
+          <t>16,85%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>30,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>30,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>28,53%</t>
+          <t>32,97%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>31,4%</t>
+          <t>32,56%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>40,97%</t>
+          <t>31,78%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>27,71%</t>
+          <t>31,41%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>28,95%</t>
+          <t>30,95%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>26,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>29,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>43,9%</t>
+          <t>29,93%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>30,67%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>28,46%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>29,19%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>23,85%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,12; 33,5</t>
+          <t>16,64; 45,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19,84; 38,82</t>
+          <t>19,34; 48,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19,18; 31,85</t>
+          <t>18,64; 38,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19,74; 36,72</t>
+          <t>20,28; 37,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>40,43; 53,47</t>
+          <t>9,76; 25,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,17; 36,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>23,71; 37,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>24,02; 34,86</t>
+          <t>23,16; 43,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>26,54; 36,86</t>
+          <t>24,6; 42,17</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>33,93; 47,97</t>
+          <t>25,42; 38,52</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>23,67; 32,55</t>
+          <t>26,35; 36,75</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>23,71; 35,68</t>
+          <t>22,9; 42,47</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>22,74; 31,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>24,74; 34,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>38,82; 48,72</t>
+          <t>22,96; 39,33</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>24,44; 40,23</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>23,53; 34,98</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>25,02; 35,23</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>17,36; 30,83</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>24,92%</t>
+          <t>22,79%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>27,26%</t>
+          <t>23,24%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>21,77%</t>
+          <t>22,08%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>23,77%</t>
+          <t>23,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>38,45%</t>
+          <t>21,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>26,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>23,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>27,27%</t>
+          <t>23,2%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>23,2%</t>
+          <t>22,45%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>44,87%</t>
+          <t>26,56%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>25,44%</t>
+          <t>22,87%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>25,49%</t>
+          <t>23,45%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>24,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>23,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>41,25%</t>
+          <t>23,0%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>22,85%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>24,27%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>23,43%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>22,37%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>21,1; 29,42</t>
+          <t>17,1; 31,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,52; 33,35</t>
+          <t>18,15; 31,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,95; 25,96</t>
+          <t>18,07; 27,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19,63; 28,64</t>
+          <t>19,49; 29,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>33,92; 43,8</t>
+          <t>17,35; 26,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,37; 29,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>19,87; 27,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,33; 31,29</t>
+          <t>18,34; 29,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,94; 27,15</t>
+          <t>17,93; 27,32</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>39,75; 49,8</t>
+          <t>22,6; 31,02</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>22,73; 28,44</t>
+          <t>19,47; 26,38</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>22,37; 29,06</t>
+          <t>18,68; 29,13</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>21,64; 27,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>20,66; 26,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>38,01; 44,89</t>
+          <t>18,86; 27,99</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>19,35; 27,14</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>21,31; 28,08</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>20,51; 26,55</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>19,28; 26,13</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1189,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19,46%</t>
+          <t>18,24%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,62%</t>
+          <t>20,41%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
+          <t>19,42%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>21,33%</t>
+          <t>21,13%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>30,73%</t>
+          <t>21,47%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>21,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>22,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>22,25%</t>
+          <t>22,81%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>23,04%</t>
+          <t>22,94%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>29,62%</t>
+          <t>22,85%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>20,38%</t>
+          <t>23,09%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>21,09%</t>
+          <t>21,24%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>20,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>22,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>30,15%</t>
+          <t>20,64%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>21,69%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>21,18%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>22,11%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>21,36%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,84 +1302,114 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,09; 23,92</t>
+          <t>12,64; 25,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,68; 24,8</t>
+          <t>15,64; 27,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,91; 23,77</t>
+          <t>15,33; 24,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,52; 26,04</t>
+          <t>17,04; 25,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,61; 39,53</t>
+          <t>16,62; 29,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,7; 25,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,04; 27,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,79; 26,22</t>
+          <t>17,43; 29,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,62; 26,65</t>
+          <t>17,71; 28,14</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>24,2; 36,05</t>
+          <t>19,03; 27,23</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,61; 23,69</t>
+          <t>19,63; 27,2</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,76; 24,48</t>
+          <t>16,49; 26,11</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>17,64; 23,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>19,47; 25,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>25,42; 35,34</t>
+          <t>16,71; 24,97</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>17,8; 25,27</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>18,25; 24,6</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>19,55; 25,36</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>17,76; 25,48</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1190,77 +1419,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>23,19%</t>
+          <t>24,05%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>24,72%</t>
+          <t>24,65%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,43%</t>
+          <t>20,71%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>39,3%</t>
+          <t>21,52%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>25,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>24,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25,89%</t>
+          <t>26,2%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>25,04%</t>
+          <t>24,62%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>39,81%</t>
+          <t>23,89%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>24,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>24,73%</t>
+          <t>27,13%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>23,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>24,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>39,54%</t>
+          <t>25,05%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>24,64%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>22,16%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>24,0%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,2313 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,7; 26,33</t>
+          <t>20,83; 27,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,63; 28,6</t>
+          <t>20,24; 29,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,72; 24,05</t>
+          <t>15,98; 26,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20,84; 26,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>35,62; 42,77</t>
+          <t>16,22; 27,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,12; 28,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,83; 27,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,47; 28,42</t>
+          <t>22,85; 29,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,76; 27,37</t>
+          <t>20,56; 28,84</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>36,48; 43,54</t>
+          <t>19,57; 29,7</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>22,58; 26,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>22,67; 26,86</t>
+          <t>21,73; 34,49</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>21,91; 25,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>22,61; 26,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>37,04; 42,02</t>
+          <t>22,61; 27,62</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>21,79; 28,63</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>18,99; 26,25</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>19,87; 27,78</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>23,21%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>23,78%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>21,54%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>23,62%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>20,88%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>25,46%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>24,43%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>25,81%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>24,9%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>24,89%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>24,3%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>24,1%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>23,63%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>24,24%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>22,75%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>20,55; 26,07</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>20,95; 27,14</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>19,01; 24,71</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>20,89; 27,65</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>18,08; 24,13</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>23,21; 27,88</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>22,2; 27,31</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>23,47; 28,33</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>22,55; 27,35</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>21,94; 27,72</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>22,53; 26,25</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>22,05; 26,32</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>21,77; 25,76</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>22,44; 26,15</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>20,66; 24,85</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que reside en vivienda cuya superficie es menor o igual que 75m2 (tasa de respuesta: 93,2%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>59494</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>93456</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>121289</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>175780</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>67853</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>64726</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>101297</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>153085</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>213636</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>122988</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>124220</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>194754</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>274374</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>389416</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>190841</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>36413; 99792</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>62654; 155858</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>89943; 184117</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>132650; 244556</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>39323; 102558</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>45473; 85144</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>76523; 131204</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>122427; 185520</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>179233; 249950</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>90987; 168732</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>95286; 163261</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>155166; 255488</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>226830; 337248</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>333802; 470055</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>138882; 246674</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>255.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>136723</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>201465</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>241425</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>343702</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>205504</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>142233</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>194006</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>278119</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>287557</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>183741</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>278956</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>395471</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>519544</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>631259</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>389245</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>102582; 187413</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>157364; 272229</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>197660; 296935</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>279997; 417166</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>165958; 257330</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>112418; 177882</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>154881; 236025</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>236651; 324882</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>244816; 331641</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>146388; 228231</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>228761; 339459</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>334952; 469799</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>456220; 601068</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>552582; 715274</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>335578; 454640</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>204.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>81146</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>139576</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>156082</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>218433</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>169827</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>112096</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>159936</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>193377</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>239613</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>166628</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>193243</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>299513</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>349459</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>458046</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>336454</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>56223; 112204</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>106985; 186371</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>123253; 196433</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>176204; 267709</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>131431; 231500</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>85667; 143591</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>123470; 196165</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>161032; 230494</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>203683; 282252</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>129400; 204837</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>156490; 233778</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>245842; 348942</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>301189; 405953</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>404986; 525387</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>279833; 401361</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>357.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>201.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>453903</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>322880</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>149736</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>191036</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>430312</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>278847</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>145681</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>191122</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>884215</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>601727</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>295416</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>382158</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>393073; 518378</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>265014; 388004</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>115579; 192907</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>143933; 241610</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>375220; 483458</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>232885; 326697</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>119345; 181107</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>153077; 242994</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>797941; 974989</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>532301; 699372</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>253040; 349812</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>316345; 442253</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>276.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>258.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>326.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>269.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>350.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>351.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>234.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>602.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>511.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>608.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>618.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>431.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>731266</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>757378</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>668532</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>737916</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>634220</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>749368</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>734086</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>770262</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>740805</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>664479</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1480634</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>1491464</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>1438794</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>1478721</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>1298699</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>647595; 821365</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>667265; 864276</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>589903; 766648</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>652569; 863879</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>549082; 732914</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>682978; 820504</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>667014; 820687</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>700581; 845490</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>670992; 813787</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>585798; 740183</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>1372878; 1599599</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>1364562; 1628909</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>1325340; 1567965</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>1369122; 1595133</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>1179425; 1418199</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
